--- a/Modelos em Python/7 dias a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/7 dias a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.74036655208556</v>
+        <v>11.82994991003804</v>
       </c>
       <c r="C2" t="n">
-        <v>54.48922685177256</v>
+        <v>38.29243998873644</v>
       </c>
       <c r="D2" t="n">
-        <v>68.68348320554716</v>
+        <v>49.88833854527829</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.30565798381466</v>
+        <v>14.72725098303661</v>
       </c>
       <c r="C3" t="n">
-        <v>72.04116473255822</v>
+        <v>47.90229832359405</v>
       </c>
       <c r="D3" t="n">
-        <v>90.04577029375456</v>
+        <v>63.16507243089645</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.1446654758937</v>
+        <v>12.47969457696507</v>
       </c>
       <c r="C4" t="n">
-        <v>58.15112764757176</v>
+        <v>40.25236732433052</v>
       </c>
       <c r="D4" t="n">
-        <v>73.80165130879337</v>
+        <v>52.97216556798944</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.94071014156644</v>
+        <v>11.72599787186937</v>
       </c>
       <c r="C5" t="n">
-        <v>56.43497628205599</v>
+        <v>38.41552934678112</v>
       </c>
       <c r="D5" t="n">
-        <v>70.13099829381751</v>
+        <v>49.39812096237279</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.4970650923523</v>
+        <v>12.0137413884632</v>
       </c>
       <c r="C6" t="n">
-        <v>58.11455222920646</v>
+        <v>39.30650369431664</v>
       </c>
       <c r="D6" t="n">
-        <v>72.00920572472413</v>
+        <v>50.51462848114559</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.09784390585626</v>
+        <v>12.50761801813385</v>
       </c>
       <c r="C7" t="n">
-        <v>59.86764800968779</v>
+        <v>41.5017448291954</v>
       </c>
       <c r="D7" t="n">
-        <v>73.0377845503161</v>
+        <v>52.0563091673876</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.41317703844446</v>
+        <v>14.75200009112162</v>
       </c>
       <c r="C8" t="n">
-        <v>72.3577633106012</v>
+        <v>47.98621668582383</v>
       </c>
       <c r="D8" t="n">
-        <v>90.30391212751681</v>
+        <v>63.21044944639924</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.44768283565335</v>
+        <v>14.69484436781376</v>
       </c>
       <c r="C9" t="n">
-        <v>72.5314748989872</v>
+        <v>47.89009015868885</v>
       </c>
       <c r="D9" t="n">
-        <v>90.18770214292546</v>
+        <v>63.218400042932</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126.5103791933374</v>
+        <v>116.0827991311993</v>
       </c>
       <c r="C10" t="n">
-        <v>513.9695769515131</v>
+        <v>521.2176056235394</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0945326876113</v>
+        <v>521.2616121636211</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.86455357406356</v>
+        <v>18.86569462868234</v>
       </c>
       <c r="C11" t="n">
-        <v>101.8727746015245</v>
+        <v>58.22843735612372</v>
       </c>
       <c r="D11" t="n">
-        <v>123.1925245634062</v>
+        <v>75.84996026306445</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36.24431127983512</v>
+        <v>19.00169178333194</v>
       </c>
       <c r="C12" t="n">
-        <v>96.87739808902596</v>
+        <v>58.59585840894718</v>
       </c>
       <c r="D12" t="n">
-        <v>118.6348563063114</v>
+        <v>76.69705828387048</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.33505492202969</v>
+        <v>18.14821747368194</v>
       </c>
       <c r="C13" t="n">
-        <v>100.26160829728</v>
+        <v>55.67106437073653</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6553236481053</v>
+        <v>74.05276789996589</v>
       </c>
     </row>
   </sheetData>
